--- a/biology/Botanique/Ptychostomum/Ptychostomum.xlsx
+++ b/biology/Botanique/Ptychostomum/Ptychostomum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ptychostomum est un genre de mousses de la famille des Bryaceae.
-Créé en 1822, il est tombé en désuétude avant d'être ressuscité en 2005 pour séparer le genre bryum qui était devenu un genre fourre-tout[1],[2],[3].
+Créé en 1822, il est tombé en désuétude avant d'être ressuscité en 2005 pour séparer le genre bryum qui était devenu un genre fourre-tout.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (23 juin 2021)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (23 juin 2021) :
 Ptychostomum altisetum (Müll.Hal.) J.R.Spence &amp; H.P.Ramsay
 Ptychostomum angustifolium (Brid.) J.R.Spence &amp; H.P.Ramsay
 Ptychostomum badium (Bruch ex Brid.) J.R.Spence
@@ -525,7 +539,7 @@
 Ptychostomum minii (Podp. ex Guim.) D.Bell &amp; Holyoak
 Ptychostomum ovatum (Hedw.) J.R.Spence
 Ptychostomum weigelii (Biehler) J.R.Spence
-Selon la World Flora Online (WFO)       (23 juin 2021)[5] :
+Selon la World Flora Online (WFO)       (23 juin 2021) :
 Ptychostomum acutiforme (Limpr.) J.R. Spence
 Ptychostomum altisetum (Müll. Hal.) J.R. Spence &amp; H.P. Ramsay
 Ptychostomum amblyodon (Müll. Hal.) C. Y. Wang &amp; J.C. Zhao
